--- a/Internet/Checkboxes/Checkboxes.xlsx
+++ b/Internet/Checkboxes/Checkboxes.xlsx
@@ -429,7 +429,92 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1990725" cy="866775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1990725" cy="866775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1990725" cy="933450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,6 +743,7 @@
     <col customWidth="1" min="2" max="2" width="21.5"/>
     <col customWidth="1" min="3" max="3" width="38.63"/>
     <col customWidth="1" min="4" max="5" width="20.0"/>
+    <col customWidth="1" min="7" max="7" width="26.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -704,7 +790,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" ht="100.5" customHeight="1">
       <c r="A2" s="6">
         <v>1.0</v>
       </c>
@@ -746,7 +832,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" ht="100.5" customHeight="1">
       <c r="A3" s="11">
         <v>2.0</v>
       </c>
@@ -788,7 +874,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" ht="100.5" customHeight="1">
       <c r="A4" s="6">
         <v>3.0</v>
       </c>
